--- a/medicine/Mort/Liste_de_personnalités_mortes_dans_un_accident_de_transport/Liste_de_personnalités_mortes_dans_un_accident_de_transport.xlsx
+++ b/medicine/Mort/Liste_de_personnalités_mortes_dans_un_accident_de_transport/Liste_de_personnalités_mortes_dans_un_accident_de_transport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_dans_un_accident_de_transport</t>
+          <t>Liste_de_personnalités_mortes_dans_un_accident_de_transport</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page propose une liste de personnalités mortes dans un accident de transport.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_dans_un_accident_de_transport</t>
+          <t>Liste_de_personnalités_mortes_dans_un_accident_de_transport</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Aéronef</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1896 :
 Otto Lilienthal, pionnier allemand de l'aéronautique
@@ -741,7 +755,7 @@
 Evgueni Prigojine, oligarque russe, fondateur du groupe paramilitaire Wagner.
 Dmitri Outkine, militaire russe, membre du groupe paramilitaire Wagner.
 2024:
-Sebastián Piñera, ancien Président de la république du Chili[1].
+Sebastián Piñera, ancien Président de la république du Chili.
 Ebrahim Raïssi, Homme politique iranien, Président de la république islamique d'Iran (2021-2024).
 Malek Rahmati, Homme politique iranien.
 Hossein Amir Abdollahian, Homme politique iranien.</t>
@@ -754,7 +768,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_dans_un_accident_de_transport</t>
+          <t>Liste_de_personnalités_mortes_dans_un_accident_de_transport</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -772,7 +786,9 @@
           <t>Moto</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1935 :
 Thomas Edward Lawrence dit Lawrence d'Arabie, officier et aventurier anglais
@@ -834,7 +850,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_dans_un_accident_de_transport</t>
+          <t>Liste_de_personnalités_mortes_dans_un_accident_de_transport</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -852,7 +868,9 @@
           <t>Naufrage ou disparition en mer</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1120 :
 Guillaume Adelin, seul fils légitime du roi Henri I d'Angleterre
@@ -926,7 +944,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_dans_un_accident_de_transport</t>
+          <t>Liste_de_personnalités_mortes_dans_un_accident_de_transport</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -944,7 +962,9 @@
           <t>Automobile</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1932 :
 Lucien Lesna, coureur cycliste et aviateur français
@@ -1140,7 +1160,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_dans_un_accident_de_transport</t>
+          <t>Liste_de_personnalités_mortes_dans_un_accident_de_transport</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1158,7 +1178,9 @@
           <t>Chemin de fer</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1830 :
 William Huskisson, politique britannique (percuté par la locomotive Fusée de Stephenson ; première personnalité notable tuée dans un accident de chemin de fer) ;
@@ -1177,7 +1199,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_dans_un_accident_de_transport</t>
+          <t>Liste_de_personnalités_mortes_dans_un_accident_de_transport</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1195,7 +1217,9 @@
           <t>Chute de cheval</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1482 :
 Marie de Bourgogne, fille de Charles le Téméraire
@@ -1220,7 +1244,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_dans_un_accident_de_transport</t>
+          <t>Liste_de_personnalités_mortes_dans_un_accident_de_transport</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1238,7 +1262,9 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1899 :
 Ernest Chausson, compositeur français (accident de bicyclette)
